--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="16590" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="15030" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
